--- a/绘图/数组示意图.xlsx
+++ b/绘图/数组示意图.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7905" activeTab="2"/>
+    <workbookView windowWidth="19410" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数组插入操作" sheetId="1" r:id="rId1"/>
     <sheet name="数组删除操作" sheetId="3" r:id="rId2"/>
     <sheet name="动态数组扩容和缩容" sheetId="4" r:id="rId3"/>
+    <sheet name="数组操作时间复杂度分析" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>size</t>
   </si>
@@ -37,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>基本思想：</t>
     </r>
     <r>
@@ -106,16 +114,67 @@
   <si>
     <t>缩容</t>
   </si>
+  <si>
+    <t>添加操作</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>addLast(e)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>addFirst(e)</t>
+  </si>
+  <si>
+    <t>add(index, e)</t>
+  </si>
+  <si>
+    <t>O(n/2) = O(n)</t>
+  </si>
+  <si>
+    <t>删除操作</t>
+  </si>
+  <si>
+    <t>removeLast()</t>
+  </si>
+  <si>
+    <t>removeFirst()</t>
+  </si>
+  <si>
+    <t>remove(index, e)</t>
+  </si>
+  <si>
+    <t>修改/访问操作</t>
+  </si>
+  <si>
+    <t>set(index, e)</t>
+  </si>
+  <si>
+    <t>查找操作</t>
+  </si>
+  <si>
+    <t>get(index)</t>
+  </si>
+  <si>
+    <t>contains(e)</t>
+  </si>
+  <si>
+    <t>find(e)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -141,6 +200,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,45 +217,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,19 +235,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +267,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -247,16 +289,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,32 +344,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -324,6 +389,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,97 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +461,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,37 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,36 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -643,13 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,153 +701,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,10 +881,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -831,31 +902,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2309,6 +2374,210 @@
             <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右大括号 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="666750"/>
+          <a:ext cx="152400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右大括号 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="1924050"/>
+          <a:ext cx="152400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2603,45 +2872,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:6">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:12">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2658,49 +2927,49 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="5:12">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>4</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="6:11">
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2717,54 +2986,54 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:12">
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
         <v>3</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>4</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="6:11">
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>4</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2791,159 +3060,159 @@
       <c r="L25" s="14"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:12">
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>2</v>
       </c>
       <c r="G29" s="11">
         <v>3</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>3</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>4</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>5</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="6:11">
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>4</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:10">
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:12">
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8">
         <v>6</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>3</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>4</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>5</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="1" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="6:11">
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>1</v>
       </c>
-      <c r="H37" s="1">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
         <v>3</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="3">
         <v>4</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:12">
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4">
         <v>6</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>3</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <v>4</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="4">
         <v>5</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="1" t="s">
+      <c r="K43" s="5"/>
+      <c r="L43" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="1">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
         <v>3</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>4</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2971,279 +3240,279 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="4:11">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="4:11">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>5</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="1" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="4:11">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>4</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>5</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="4:11">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="4:11">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="31" spans="4:11">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
         <v>4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" s="11">
         <v>5</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="1" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="4:11">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="1">
-        <v>2</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
         <v>3</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>4</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>5</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3260,521 +3529,521 @@
   <sheetPr/>
   <dimension ref="E3:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="24.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="24.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:5">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="10:10">
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="5:11">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="6:9">
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="10:10">
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
         <v>3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:14">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:11">
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>4</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="5:14">
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>4</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="1" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="6:13">
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>4</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <v>5</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="3">
         <v>6</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="5">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7">
         <v>3</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="7">
         <v>4</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:14">
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
         <v>3</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="4">
         <v>4</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <v>5</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="1" t="s">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="6:13">
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="H41" s="1">
-        <v>2</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3">
         <v>3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>4</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <v>5</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="3">
         <v>6</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="5:14">
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="2">
-        <v>2</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8">
         <v>6</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>3</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <v>4</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="4">
         <v>5</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="1" t="s">
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="6:13">
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="1">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3">
         <v>3</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>4</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>5</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="3">
         <v>6</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="11:11">
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="5:14">
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4">
         <v>6</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>3</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>4</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="4">
         <v>5</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1" t="s">
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="6:13">
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>1</v>
       </c>
-      <c r="H52" s="1">
-        <v>2</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3">
         <v>3</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>4</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <v>5</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>6</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="5:14">
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="2">
-        <v>2</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
         <v>6</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="4">
         <v>3</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <v>4</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="9">
         <v>5</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="1" t="s">
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="6:13">
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="1">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+      <c r="I59" s="3">
         <v>3</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>4</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3">
         <v>5</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="3">
         <v>6</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="5:11">
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="2">
-        <v>2</v>
-      </c>
-      <c r="G64" s="2">
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4">
         <v>3</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="4">
         <v>4</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>5</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="6:9">
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="3">
         <v>1</v>
       </c>
-      <c r="H65" s="1">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="H65" s="3">
+        <v>2</v>
+      </c>
+      <c r="I65" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3793,4 +4062,190 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/绘图/数组示意图.xlsx
+++ b/绘图/数组示意图.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7905" activeTab="3"/>
+    <workbookView windowWidth="19410" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数组插入操作" sheetId="1" r:id="rId1"/>
     <sheet name="数组删除操作" sheetId="3" r:id="rId2"/>
     <sheet name="动态数组扩容和缩容" sheetId="4" r:id="rId3"/>
-    <sheet name="数组操作时间复杂度分析" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>size</t>
   </si>
@@ -38,13 +37,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>基本思想：</t>
     </r>
     <r>
@@ -114,67 +106,16 @@
   <si>
     <t>缩容</t>
   </si>
-  <si>
-    <t>添加操作</t>
-  </si>
-  <si>
-    <t>O(n)</t>
-  </si>
-  <si>
-    <t>addLast(e)</t>
-  </si>
-  <si>
-    <t>O(1)</t>
-  </si>
-  <si>
-    <t>addFirst(e)</t>
-  </si>
-  <si>
-    <t>add(index, e)</t>
-  </si>
-  <si>
-    <t>O(n/2) = O(n)</t>
-  </si>
-  <si>
-    <t>删除操作</t>
-  </si>
-  <si>
-    <t>removeLast()</t>
-  </si>
-  <si>
-    <t>removeFirst()</t>
-  </si>
-  <si>
-    <t>remove(index, e)</t>
-  </si>
-  <si>
-    <t>修改/访问操作</t>
-  </si>
-  <si>
-    <t>set(index, e)</t>
-  </si>
-  <si>
-    <t>查找操作</t>
-  </si>
-  <si>
-    <t>get(index)</t>
-  </si>
-  <si>
-    <t>contains(e)</t>
-  </si>
-  <si>
-    <t>find(e)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -200,13 +141,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,6 +151,45 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,19 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,21 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -289,47 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,24 +271,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -389,12 +324,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,13 +336,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,31 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,61 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +574,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -678,17 +643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,179 +662,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,46 +816,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2374,210 +2309,6 @@
             <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右大括号 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3486150" y="666750"/>
-          <a:ext cx="152400" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右大括号 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3486150" y="1924050"/>
-          <a:ext cx="152400" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2872,45 +2603,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:6">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:12">
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2927,49 +2658,49 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="5:12">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3" t="s">
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="6:11">
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2986,54 +2717,54 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:12">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
         <v>3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="3" t="s">
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="6:11">
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3060,159 +2791,159 @@
       <c r="L25" s="14"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:12">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
       <c r="G29" s="11">
         <v>3</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="J29" s="4">
-        <v>5</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3" t="s">
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="6:11">
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>4</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:10">
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:12">
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
         <v>6</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>4</v>
       </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3" t="s">
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="6:11">
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
         <v>3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>4</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:12">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>3</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="4">
-        <v>5</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="3" t="s">
+      <c r="J43" s="2">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
-        <v>2</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="1">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3240,279 +2971,279 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="4:11">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3" t="s">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="4:11">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>5</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="3" t="s">
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="4:11">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
         <v>3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3"/>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="4:11">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="4:11">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="31" spans="4:11">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10">
         <v>4</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>5</v>
       </c>
       <c r="H33" s="11">
         <v>5</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="3" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="4:11">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
         <v>3</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>4</v>
       </c>
-      <c r="J34" s="3">
-        <v>5</v>
-      </c>
-      <c r="K34" s="3"/>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3529,521 +3260,521 @@
   <sheetPr/>
   <dimension ref="E3:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="24.5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="24.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:5">
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="10:10">
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="5:11">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="6:9">
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="10:10">
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
         <v>3</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:14">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="3" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:11">
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
         <v>3</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="4">
-        <v>5</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="5:14">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
         <v>3</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="4">
-        <v>5</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="3" t="s">
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="6:13">
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>4</v>
       </c>
-      <c r="K30" s="3">
-        <v>5</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1">
         <v>6</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="7">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
         <v>3</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>4</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:14">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>4</v>
       </c>
-      <c r="I40" s="4">
-        <v>5</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="3" t="s">
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="6:13">
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1">
         <v>3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
         <v>6</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="5:14">
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="6">
         <v>6</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>4</v>
       </c>
-      <c r="J46" s="4">
-        <v>5</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="3" t="s">
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="6:13">
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
         <v>6</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="11:11">
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="5:14">
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2">
         <v>6</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>3</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <v>4</v>
       </c>
-      <c r="J51" s="4">
-        <v>5</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="3" t="s">
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="6:13">
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="1">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="1">
+        <v>5</v>
+      </c>
+      <c r="L52" s="1">
         <v>6</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="5:14">
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="F58" s="2">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="2">
         <v>3</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>4</v>
       </c>
-      <c r="J58" s="9">
-        <v>5</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="3" t="s">
+      <c r="J58" s="7">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="6:13">
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="1">
         <v>1</v>
       </c>
-      <c r="H59" s="3">
-        <v>2</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1">
         <v>3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="1">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="1">
+        <v>5</v>
+      </c>
+      <c r="L59" s="1">
         <v>6</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="5:11">
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4">
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2">
         <v>3</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64" s="4">
-        <v>5</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="6:9">
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="1">
         <v>1</v>
       </c>
-      <c r="H65" s="3">
-        <v>2</v>
-      </c>
-      <c r="I65" s="3">
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4062,190 +3793,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>